--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H2">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.199377467478511</v>
+        <v>9.741451333333334</v>
       </c>
       <c r="N2">
-        <v>0.199377467478511</v>
+        <v>29.224354</v>
       </c>
       <c r="O2">
-        <v>0.01544526397626098</v>
+        <v>0.3775161279488246</v>
       </c>
       <c r="P2">
-        <v>0.01544526397626098</v>
+        <v>0.3775161279488247</v>
       </c>
       <c r="Q2">
-        <v>2.346973586305305</v>
+        <v>179.7711912567685</v>
       </c>
       <c r="R2">
-        <v>2.346973586305305</v>
+        <v>1617.940721310916</v>
       </c>
       <c r="S2">
-        <v>0.00395782771521155</v>
+        <v>0.1281657951531049</v>
       </c>
       <c r="T2">
-        <v>0.00395782771521155</v>
+        <v>0.128165795153105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H3">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.6587419822806</v>
+        <v>0.2164776666666667</v>
       </c>
       <c r="N3">
-        <v>12.6587419822806</v>
+        <v>0.649433</v>
       </c>
       <c r="O3">
-        <v>0.9806404605112866</v>
+        <v>0.008389284893078868</v>
       </c>
       <c r="P3">
-        <v>0.9806404605112866</v>
+        <v>0.008389284893078872</v>
       </c>
       <c r="Q3">
-        <v>149.0124909499553</v>
+        <v>3.994933268720223</v>
       </c>
       <c r="R3">
-        <v>149.0124909499553</v>
+        <v>35.95439941848201</v>
       </c>
       <c r="S3">
-        <v>0.2512877733416996</v>
+        <v>0.002848141548096029</v>
       </c>
       <c r="T3">
-        <v>0.2512877733416996</v>
+        <v>0.002848141548096031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H4">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0505280026217354</v>
+        <v>15.72118933333333</v>
       </c>
       <c r="N4">
-        <v>0.0505280026217354</v>
+        <v>47.163568</v>
       </c>
       <c r="O4">
-        <v>0.003914275512452399</v>
+        <v>0.6092523917418701</v>
       </c>
       <c r="P4">
-        <v>0.003914275512452399</v>
+        <v>0.6092523917418703</v>
       </c>
       <c r="Q4">
-        <v>0.5947908207569126</v>
+        <v>290.1227792162525</v>
       </c>
       <c r="R4">
-        <v>0.5947908207569126</v>
+        <v>2611.105012946272</v>
       </c>
       <c r="S4">
-        <v>0.001003027732770958</v>
+        <v>0.2068396856600332</v>
       </c>
       <c r="T4">
-        <v>0.001003027732770958</v>
+        <v>0.2068396856600333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.8509582311939</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H5">
-        <v>15.8509582311939</v>
+        <v>55.362754</v>
       </c>
       <c r="I5">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J5">
-        <v>0.3450523146064267</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.199377467478511</v>
+        <v>0.1249483333333333</v>
       </c>
       <c r="N5">
-        <v>0.199377467478511</v>
+        <v>0.374845</v>
       </c>
       <c r="O5">
-        <v>0.01544526397626098</v>
+        <v>0.004842195416226383</v>
       </c>
       <c r="P5">
-        <v>0.01544526397626098</v>
+        <v>0.004842195416226384</v>
       </c>
       <c r="Q5">
-        <v>3.160323909243098</v>
+        <v>2.305827947014444</v>
       </c>
       <c r="R5">
-        <v>3.160323909243098</v>
+        <v>20.75245152313</v>
       </c>
       <c r="S5">
-        <v>0.005329424084716113</v>
+        <v>0.001643913411539075</v>
       </c>
       <c r="T5">
-        <v>0.005329424084716113</v>
+        <v>0.001643913411539075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J6">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>12.6587419822806</v>
+        <v>9.741451333333334</v>
       </c>
       <c r="N6">
-        <v>12.6587419822806</v>
+        <v>29.224354</v>
       </c>
       <c r="O6">
-        <v>0.9806404605112866</v>
+        <v>0.3775161279488246</v>
       </c>
       <c r="P6">
-        <v>0.9806404605112866</v>
+        <v>0.3775161279488247</v>
       </c>
       <c r="Q6">
-        <v>200.6531904205905</v>
+        <v>154.7556832597422</v>
       </c>
       <c r="R6">
-        <v>200.6531904205905</v>
+        <v>1392.80114933768</v>
       </c>
       <c r="S6">
-        <v>0.3383722606961316</v>
+        <v>0.1103312775578002</v>
       </c>
       <c r="T6">
-        <v>0.3383722606961316</v>
+        <v>0.1103312775578003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J7">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0505280026217354</v>
+        <v>0.2164776666666667</v>
       </c>
       <c r="N7">
-        <v>0.0505280026217354</v>
+        <v>0.649433</v>
       </c>
       <c r="O7">
-        <v>0.003914275512452399</v>
+        <v>0.008389284893078868</v>
       </c>
       <c r="P7">
-        <v>0.003914275512452399</v>
+        <v>0.008389284893078872</v>
       </c>
       <c r="Q7">
-        <v>0.8009172590627838</v>
+        <v>3.439030599151111</v>
       </c>
       <c r="R7">
-        <v>0.8009172590627838</v>
+        <v>30.95127539236</v>
       </c>
       <c r="S7">
-        <v>0.001350629825578957</v>
+        <v>0.002451817158326061</v>
       </c>
       <c r="T7">
-        <v>0.001350629825578957</v>
+        <v>0.002451817158326063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.89375579677336</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>3.89375579677336</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.08476140247122727</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J8">
-        <v>0.08476140247122727</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.199377467478511</v>
+        <v>15.72118933333333</v>
       </c>
       <c r="N8">
-        <v>0.199377467478511</v>
+        <v>47.163568</v>
       </c>
       <c r="O8">
-        <v>0.01544526397626098</v>
+        <v>0.6092523917418701</v>
       </c>
       <c r="P8">
-        <v>0.01544526397626098</v>
+        <v>0.6092523917418703</v>
       </c>
       <c r="Q8">
-        <v>0.7763271697404442</v>
+        <v>249.7516349140622</v>
       </c>
       <c r="R8">
-        <v>0.7763271697404442</v>
+        <v>2247.76471422656</v>
       </c>
       <c r="S8">
-        <v>0.001309162236166205</v>
+        <v>0.1780575444584398</v>
       </c>
       <c r="T8">
-        <v>0.001309162236166205</v>
+        <v>0.1780575444584399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.89375579677336</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>3.89375579677336</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.08476140247122727</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J9">
-        <v>0.08476140247122727</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6587419822806</v>
+        <v>0.1249483333333333</v>
       </c>
       <c r="N9">
-        <v>12.6587419822806</v>
+        <v>0.374845</v>
       </c>
       <c r="O9">
-        <v>0.9806404605112866</v>
+        <v>0.004842195416226383</v>
       </c>
       <c r="P9">
-        <v>0.9806404605112866</v>
+        <v>0.004842195416226384</v>
       </c>
       <c r="Q9">
-        <v>49.29004997336338</v>
+        <v>1.984967540822222</v>
       </c>
       <c r="R9">
-        <v>49.29004997336338</v>
+        <v>17.8647078674</v>
       </c>
       <c r="S9">
-        <v>0.08312046075296681</v>
+        <v>0.00141515968962577</v>
       </c>
       <c r="T9">
-        <v>0.08312046075296681</v>
+        <v>0.00141515968962577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H10">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.0505280026217354</v>
+        <v>9.741451333333334</v>
       </c>
       <c r="N10">
-        <v>0.0505280026217354</v>
+        <v>29.224354</v>
       </c>
       <c r="O10">
-        <v>0.003914275512452399</v>
+        <v>0.3775161279488246</v>
       </c>
       <c r="P10">
-        <v>0.003914275512452399</v>
+        <v>0.3775161279488247</v>
       </c>
       <c r="Q10">
-        <v>0.1967437031077617</v>
+        <v>47.01249741240133</v>
       </c>
       <c r="R10">
-        <v>0.1967437031077617</v>
+        <v>423.112476711612</v>
       </c>
       <c r="S10">
-        <v>0.0003317794820942472</v>
+        <v>0.03351701721989254</v>
       </c>
       <c r="T10">
-        <v>0.0003317794820942472</v>
+        <v>0.03351701721989256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.4216179176535</v>
+        <v>4.826026</v>
       </c>
       <c r="H11">
-        <v>14.4216179176535</v>
+        <v>14.478078</v>
       </c>
       <c r="I11">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J11">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.199377467478511</v>
+        <v>0.2164776666666667</v>
       </c>
       <c r="N11">
-        <v>0.199377467478511</v>
+        <v>0.649433</v>
       </c>
       <c r="O11">
-        <v>0.01544526397626098</v>
+        <v>0.008389284893078868</v>
       </c>
       <c r="P11">
-        <v>0.01544526397626098</v>
+        <v>0.008389284893078872</v>
       </c>
       <c r="Q11">
-        <v>2.875345657364472</v>
+        <v>1.044726847752667</v>
       </c>
       <c r="R11">
-        <v>2.875345657364472</v>
+        <v>9.402541629774001</v>
       </c>
       <c r="S11">
-        <v>0.004848849940167116</v>
+        <v>0.0007448259436005488</v>
       </c>
       <c r="T11">
-        <v>0.004848849940167116</v>
+        <v>0.0007448259436005492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.4216179176535</v>
+        <v>4.826026</v>
       </c>
       <c r="H12">
-        <v>14.4216179176535</v>
+        <v>14.478078</v>
       </c>
       <c r="I12">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J12">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6587419822806</v>
+        <v>15.72118933333333</v>
       </c>
       <c r="N12">
-        <v>12.6587419822806</v>
+        <v>47.163568</v>
       </c>
       <c r="O12">
-        <v>0.9806404605112866</v>
+        <v>0.6092523917418701</v>
       </c>
       <c r="P12">
-        <v>0.9806404605112866</v>
+        <v>0.6092523917418703</v>
       </c>
       <c r="Q12">
-        <v>182.5595401866105</v>
+        <v>75.87086847358933</v>
       </c>
       <c r="R12">
-        <v>182.5595401866105</v>
+        <v>682.8378162623039</v>
       </c>
       <c r="S12">
-        <v>0.3078599657204887</v>
+        <v>0.05409125966676877</v>
       </c>
       <c r="T12">
-        <v>0.3078599657204887</v>
+        <v>0.0540912596667688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.4216179176535</v>
+        <v>4.826026</v>
       </c>
       <c r="H13">
-        <v>14.4216179176535</v>
+        <v>14.478078</v>
       </c>
       <c r="I13">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J13">
-        <v>0.3139376541326641</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0505280026217354</v>
+        <v>0.1249483333333333</v>
       </c>
       <c r="N13">
-        <v>0.0505280026217354</v>
+        <v>0.374845</v>
       </c>
       <c r="O13">
-        <v>0.003914275512452399</v>
+        <v>0.004842195416226383</v>
       </c>
       <c r="P13">
-        <v>0.003914275512452399</v>
+        <v>0.004842195416226384</v>
       </c>
       <c r="Q13">
-        <v>0.7286955479528623</v>
+        <v>0.6030039053233333</v>
       </c>
       <c r="R13">
-        <v>0.7286955479528623</v>
+        <v>5.42703514791</v>
       </c>
       <c r="S13">
-        <v>0.001228838472008238</v>
+        <v>0.0004299046719660808</v>
       </c>
       <c r="T13">
-        <v>0.001228838472008238</v>
+        <v>0.0004299046719660809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H14">
+        <v>45.572872</v>
+      </c>
+      <c r="I14">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J14">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>9.741451333333334</v>
+      </c>
+      <c r="N14">
+        <v>29.224354</v>
+      </c>
+      <c r="O14">
+        <v>0.3775161279488246</v>
+      </c>
+      <c r="P14">
+        <v>0.3775161279488247</v>
+      </c>
+      <c r="Q14">
+        <v>147.9819715694098</v>
+      </c>
+      <c r="R14">
+        <v>1331.837744124688</v>
+      </c>
+      <c r="S14">
+        <v>0.1055020380180269</v>
+      </c>
+      <c r="T14">
+        <v>0.1055020380180269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H15">
+        <v>45.572872</v>
+      </c>
+      <c r="I15">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J15">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2164776666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.649433</v>
+      </c>
+      <c r="O15">
+        <v>0.008389284893078868</v>
+      </c>
+      <c r="P15">
+        <v>0.008389284893078872</v>
+      </c>
+      <c r="Q15">
+        <v>3.288502997952889</v>
+      </c>
+      <c r="R15">
+        <v>29.59652698157601</v>
+      </c>
+      <c r="S15">
+        <v>0.002344500243056228</v>
+      </c>
+      <c r="T15">
+        <v>0.00234450024305623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H16">
+        <v>45.572872</v>
+      </c>
+      <c r="I16">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J16">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.72118933333333</v>
+      </c>
+      <c r="N16">
+        <v>47.163568</v>
+      </c>
+      <c r="O16">
+        <v>0.6092523917418701</v>
+      </c>
+      <c r="P16">
+        <v>0.6092523917418703</v>
+      </c>
+      <c r="Q16">
+        <v>238.8199163919218</v>
+      </c>
+      <c r="R16">
+        <v>2149.379247527296</v>
+      </c>
+      <c r="S16">
+        <v>0.1702639019566282</v>
+      </c>
+      <c r="T16">
+        <v>0.1702639019566283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.19095733333334</v>
+      </c>
+      <c r="H17">
+        <v>45.572872</v>
+      </c>
+      <c r="I17">
+        <v>0.2794636578608068</v>
+      </c>
+      <c r="J17">
+        <v>0.2794636578608069</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1249483333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.374845</v>
+      </c>
+      <c r="O17">
+        <v>0.004842195416226383</v>
+      </c>
+      <c r="P17">
+        <v>0.004842195416226384</v>
+      </c>
+      <c r="Q17">
+        <v>1.898084800537778</v>
+      </c>
+      <c r="R17">
+        <v>17.08276320484</v>
+      </c>
+      <c r="S17">
+        <v>0.001353217643095457</v>
+      </c>
+      <c r="T17">
+        <v>0.001353217643095458</v>
       </c>
     </row>
   </sheetData>
